--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguecor/python/ndo_epg_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45966DBE-846E-8B46-AB07-C806DF835848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5BEFA-354C-024C-A36D-3BCFADEA70CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="49980" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="49980" windowHeight="28300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infra" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     <t>Dest EPG Name</t>
   </si>
   <si>
-    <t>Consumed Contract</t>
+    <t>Consumed Contract Reference</t>
   </si>
 </sst>
 </file>
@@ -19003,7 +19003,7 @@
   </sheetPr>
   <dimension ref="A2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:O15"/>
     </sheetView>
   </sheetViews>
@@ -19762,8 +19762,8 @@
   </sheetPr>
   <dimension ref="A1:AE389"/>
   <sheetViews>
-    <sheetView topLeftCell="D63" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="M291" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P303" sqref="P303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19785,7 +19785,7 @@
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" customWidth="1"/>
     <col min="27" max="27" width="22.5" customWidth="1"/>
     <col min="28" max="29" width="19.1640625" customWidth="1"/>
   </cols>
@@ -22921,7 +22921,7 @@
         <v/>
       </c>
       <c r="AE303" s="53" t="str">
-        <f>IF($AA303="","",INDEX(AB55:AB298,MATCH(AC303,AC55:AC298,0),1))</f>
+        <f>IF($AA303="","",INDEX($AB$55:$AB$298,MATCH(AC303,$AC$55:$AC$298,0),1))</f>
         <v/>
       </c>
     </row>
@@ -23029,7 +23029,7 @@
         <v/>
       </c>
       <c r="AE304" s="58" t="str">
-        <f>IF($AA304="","",INDEX(AB56:AB299,MATCH(AC304,AC56:AC299,0),1))</f>
+        <f t="shared" ref="AE304:AE343" si="22">IF($AA304="","",INDEX($AB$55:$AB$298,MATCH(AC304,$AC$55:$AC$298,0),1))</f>
         <v/>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
         <v/>
       </c>
       <c r="AE305" s="63" t="str">
-        <f t="shared" ref="AE305:AE343" si="22">IF($AA305="","",INDEX(AB57:AB301,MATCH(AC305,AC57:AC301,0),1))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguecor/python/ndo_epg_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5BEFA-354C-024C-A36D-3BCFADEA70CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0943E8-A683-0D4E-B814-AB9583E66EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="49980" windowHeight="28300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
   <si>
     <t>INFRA - SITES</t>
   </si>
@@ -379,6 +379,27 @@
   </si>
   <si>
     <t>Consumed Contract Reference</t>
+  </si>
+  <si>
+    <t>STRETCH-PROD-AP</t>
+  </si>
+  <si>
+    <t>WB-EIGRP-CORE-STRETCH-L3OUT</t>
+  </si>
+  <si>
+    <t>/schemas/63c9ee46aa92fa74961e6b7b/templates/WB-TEMPLATE/l3outs/WB-EIGRP-CORE-STRETCH-L3OUT</t>
+  </si>
+  <si>
+    <t>YK-EIGRP-CORE-STRETCH-L3OUT</t>
+  </si>
+  <si>
+    <t>/schemas/63c9ee46aa92fa74961e6b7b/templates/YK-TEMPLATE/l3outs/YK-EIGRP-CORE-STRETCH-L3OUT</t>
+  </si>
+  <si>
+    <t>/schemas/63c9ee46aa92fa74961e6b7b/templates/STRETCH-TEMPLATE/anps/STRETCH-PROD-AP</t>
+  </si>
+  <si>
+    <t>/schemas/63c9ee46aa92fa74961e6b7b/templates/STRETCH-SERVICES-TEMPLATE/contracts/ANY-ANY-STRETCH-L3OUT-CNT</t>
   </si>
 </sst>
 </file>
@@ -19762,8 +19783,8 @@
   </sheetPr>
   <dimension ref="A1:AE389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M291" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P303" sqref="P303"/>
+    <sheetView tabSelected="1" topLeftCell="J287" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O303" sqref="O303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22869,55 +22890,55 @@
         <v/>
       </c>
       <c r="R303" s="22" t="str">
-        <f t="shared" ref="R303:R343" si="8">IF(O303="","",VLOOKUP(O303,$F$55:$H$114,3,0))</f>
+        <f>IF(O303="","",VLOOKUP(O303,$F$55:$H$298,3,0))</f>
         <v/>
       </c>
       <c r="S303" s="44" t="str">
-        <f t="shared" ref="S303:S343" si="9">IF(O303="","",INDEX($J$55:$K$298,MATCH(O303,$K$55:$K$298,0),1))</f>
+        <f t="shared" ref="S303:S343" si="8">IF(O303="","",INDEX($J$55:$K$298,MATCH(O303,$K$55:$K$298,0),1))</f>
         <v/>
       </c>
       <c r="T303" s="22" t="str">
-        <f t="shared" ref="T303:T343" si="10">IF(O303="","",VLOOKUP(O303,$K$55:$L$298,2,0))</f>
+        <f t="shared" ref="T303:T343" si="9">IF(O303="","",VLOOKUP(O303,$K$55:$L$298,2,0))</f>
         <v/>
       </c>
       <c r="U303" s="22" t="str">
-        <f t="shared" ref="U303:U343" si="11">IF(M303="","",VLOOKUP(O303,$F$55:$I$298,4,0))</f>
+        <f t="shared" ref="U303:U343" si="10">IF(M303="","",VLOOKUP(O303,$F$55:$I$298,4,0))</f>
         <v/>
       </c>
       <c r="V303" s="22" t="str">
-        <f t="shared" ref="V303:V343" si="12">IF(U303="","",INDEX($O$55:$O$298,MATCH(O303,$Y$55:$Y$298,0),1))</f>
+        <f t="shared" ref="V303:V343" si="11">IF(U303="","",INDEX($O$55:$O$298,MATCH(O303,$Y$55:$Y$298,0),1))</f>
         <v/>
       </c>
       <c r="W303" s="22" t="str">
-        <f t="shared" ref="W303:W343" si="13">IF(V303="","",VLOOKUP(V303,$P$55:$R$298,3,0))</f>
+        <f t="shared" ref="W303:W343" si="12">IF(V303="","",VLOOKUP(V303,$P$55:$R$298,3,0))</f>
         <v/>
       </c>
       <c r="X303" s="22" t="str">
-        <f t="shared" ref="X303:X343" si="14">IF(W303="","",VLOOKUP(W303,$R$55:$S$298,2,0))</f>
+        <f t="shared" ref="X303:X343" si="13">IF(W303="","",VLOOKUP(W303,$R$55:$S$298,2,0))</f>
         <v/>
       </c>
       <c r="Y303" s="22" t="str">
-        <f t="shared" ref="Y303:Y343" si="15">IF(V303="","",VLOOKUP(V303,$P$55:$Q$298,2,0))</f>
+        <f t="shared" ref="Y303:Y343" si="14">IF(V303="","",VLOOKUP(V303,$P$55:$Q$298,2,0))</f>
         <v/>
       </c>
       <c r="Z303" s="22" t="str">
-        <f t="shared" ref="Z303:Z343" si="16">IF(X303="","",INDEX($Z$55:$Z$298,MATCH(X303,$AA$55:$AA$298,0),1))</f>
+        <f t="shared" ref="Z303:Z343" si="15">IF(X303="","",INDEX($Z$55:$Z$298,MATCH(X303,$AA$55:$AA$298,0),1))</f>
         <v/>
       </c>
       <c r="AA303" s="22" t="str">
-        <f t="shared" ref="AA303:AA343" si="17">IF(O303="","",INDEX($T$55:$T$298,MATCH(O303,$Y$55:$Y$298,0),1))</f>
+        <f t="shared" ref="AA303:AA343" si="16">IF(O303="","",INDEX($T$55:$T$298,MATCH(O303,$Y$55:$Y$298,0),1))</f>
         <v/>
       </c>
       <c r="AB303" s="22" t="str">
-        <f t="shared" ref="AB303:AB343" si="18">IF($AA303="","",VLOOKUP($AA303,$T$55:$X$298,4,0))</f>
+        <f t="shared" ref="AB303:AB343" si="17">IF($AA303="","",VLOOKUP($AA303,$T$55:$X$298,4,0))</f>
         <v/>
       </c>
       <c r="AC303" s="22" t="str">
-        <f t="shared" ref="AC303:AC343" si="19">IF($AA303="","",VLOOKUP($AA303,$T$55:$X$298,5,0))</f>
+        <f t="shared" ref="AC303:AC343" si="18">IF($AA303="","",VLOOKUP($AA303,$T$55:$X$298,5,0))</f>
         <v/>
       </c>
       <c r="AD303" s="22" t="str">
-        <f t="shared" ref="AD303:AD343" si="20">IF($AA303="","",VLOOKUP($AA303,$T$55:$X$298,3,0))</f>
+        <f t="shared" ref="AD303:AD343" si="19">IF($AA303="","",VLOOKUP($AA303,$T$55:$X$298,3,0))</f>
         <v/>
       </c>
       <c r="AE303" s="53" t="str">
@@ -22961,7 +22982,7 @@
       </c>
       <c r="M304" s="56"/>
       <c r="N304" s="55" t="str">
-        <f t="shared" ref="N304:N343" si="21">IF(ISBLANK(M304),"",VLOOKUP(M304,$B$55:$I$298,4,0))</f>
+        <f t="shared" ref="N304:N343" si="20">IF(ISBLANK(M304),"",VLOOKUP(M304,$B$55:$I$298,4,0))</f>
         <v/>
       </c>
       <c r="O304" s="55" t="str">
@@ -22977,55 +22998,55 @@
         <v/>
       </c>
       <c r="R304" s="55" t="str">
+        <f t="shared" ref="R304:R343" si="21">IF(O304="","",VLOOKUP(O304,$F$55:$H$298,3,0))</f>
+        <v/>
+      </c>
+      <c r="S304" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S304" s="57" t="str">
+      <c r="T304" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T304" s="55" t="str">
+      <c r="U304" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U304" s="55" t="str">
+      <c r="V304" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V304" s="55" t="str">
+      <c r="W304" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W304" s="55" t="str">
+      <c r="X304" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X304" s="55" t="str">
+      <c r="Y304" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y304" s="55" t="str">
+      <c r="Z304" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z304" s="55" t="str">
+      <c r="AA304" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA304" s="55" t="str">
+      <c r="AB304" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB304" s="55" t="str">
+      <c r="AC304" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC304" s="55" t="str">
+      <c r="AD304" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD304" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE304" s="58" t="str">
@@ -23069,7 +23090,7 @@
       </c>
       <c r="M305" s="61"/>
       <c r="N305" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O305" s="60" t="str">
@@ -23085,55 +23106,55 @@
         <v/>
       </c>
       <c r="R305" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S305" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S305" s="62" t="str">
+      <c r="T305" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T305" s="60" t="str">
+      <c r="U305" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U305" s="60" t="str">
+      <c r="V305" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V305" s="60" t="str">
+      <c r="W305" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W305" s="60" t="str">
+      <c r="X305" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X305" s="60" t="str">
+      <c r="Y305" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y305" s="60" t="str">
+      <c r="Z305" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z305" s="60" t="str">
+      <c r="AA305" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA305" s="60" t="str">
+      <c r="AB305" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB305" s="60" t="str">
+      <c r="AC305" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC305" s="60" t="str">
+      <c r="AD305" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD305" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE305" s="63" t="str">
@@ -23177,7 +23198,7 @@
       </c>
       <c r="M306" s="56"/>
       <c r="N306" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O306" s="55" t="str">
@@ -23193,55 +23214,55 @@
         <v/>
       </c>
       <c r="R306" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S306" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S306" s="57" t="str">
+      <c r="T306" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T306" s="55" t="str">
+      <c r="U306" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U306" s="55" t="str">
+      <c r="V306" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V306" s="55" t="str">
+      <c r="W306" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W306" s="55" t="str">
+      <c r="X306" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X306" s="55" t="str">
+      <c r="Y306" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y306" s="55" t="str">
+      <c r="Z306" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z306" s="55" t="str">
+      <c r="AA306" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA306" s="55" t="str">
+      <c r="AB306" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB306" s="55" t="str">
+      <c r="AC306" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC306" s="55" t="str">
+      <c r="AD306" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD306" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE306" s="58" t="str">
@@ -23285,7 +23306,7 @@
       </c>
       <c r="M307" s="61"/>
       <c r="N307" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O307" s="60" t="str">
@@ -23301,55 +23322,55 @@
         <v/>
       </c>
       <c r="R307" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S307" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S307" s="62" t="str">
+      <c r="T307" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T307" s="60" t="str">
+      <c r="U307" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U307" s="60" t="str">
+      <c r="V307" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V307" s="60" t="str">
+      <c r="W307" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W307" s="60" t="str">
+      <c r="X307" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X307" s="60" t="str">
+      <c r="Y307" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y307" s="60" t="str">
+      <c r="Z307" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z307" s="60" t="str">
+      <c r="AA307" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA307" s="60" t="str">
+      <c r="AB307" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB307" s="60" t="str">
+      <c r="AC307" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC307" s="60" t="str">
+      <c r="AD307" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD307" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE307" s="63" t="str">
@@ -23393,7 +23414,7 @@
       </c>
       <c r="M308" s="56"/>
       <c r="N308" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O308" s="55" t="str">
@@ -23409,55 +23430,55 @@
         <v/>
       </c>
       <c r="R308" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S308" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S308" s="57" t="str">
+      <c r="T308" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T308" s="55" t="str">
+      <c r="U308" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U308" s="55" t="str">
+      <c r="V308" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V308" s="55" t="str">
+      <c r="W308" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W308" s="55" t="str">
+      <c r="X308" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X308" s="55" t="str">
+      <c r="Y308" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y308" s="55" t="str">
+      <c r="Z308" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z308" s="55" t="str">
+      <c r="AA308" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA308" s="55" t="str">
+      <c r="AB308" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB308" s="55" t="str">
+      <c r="AC308" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC308" s="55" t="str">
+      <c r="AD308" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD308" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE308" s="58" t="str">
@@ -23501,7 +23522,7 @@
       </c>
       <c r="M309" s="61"/>
       <c r="N309" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O309" s="60" t="str">
@@ -23517,55 +23538,55 @@
         <v/>
       </c>
       <c r="R309" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S309" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S309" s="62" t="str">
+      <c r="T309" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T309" s="60" t="str">
+      <c r="U309" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U309" s="60" t="str">
+      <c r="V309" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V309" s="60" t="str">
+      <c r="W309" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W309" s="60" t="str">
+      <c r="X309" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X309" s="60" t="str">
+      <c r="Y309" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y309" s="60" t="str">
+      <c r="Z309" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z309" s="60" t="str">
+      <c r="AA309" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA309" s="60" t="str">
+      <c r="AB309" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB309" s="60" t="str">
+      <c r="AC309" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC309" s="60" t="str">
+      <c r="AD309" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD309" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE309" s="63" t="str">
@@ -23609,7 +23630,7 @@
       </c>
       <c r="M310" s="56"/>
       <c r="N310" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O310" s="55" t="str">
@@ -23625,55 +23646,55 @@
         <v/>
       </c>
       <c r="R310" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S310" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S310" s="57" t="str">
+      <c r="T310" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T310" s="55" t="str">
+      <c r="U310" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U310" s="55" t="str">
+      <c r="V310" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V310" s="55" t="str">
+      <c r="W310" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W310" s="55" t="str">
+      <c r="X310" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X310" s="55" t="str">
+      <c r="Y310" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y310" s="55" t="str">
+      <c r="Z310" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z310" s="55" t="str">
+      <c r="AA310" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA310" s="55" t="str">
+      <c r="AB310" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB310" s="55" t="str">
+      <c r="AC310" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC310" s="55" t="str">
+      <c r="AD310" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD310" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE310" s="58" t="str">
@@ -23717,7 +23738,7 @@
       </c>
       <c r="M311" s="61"/>
       <c r="N311" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O311" s="60" t="str">
@@ -23733,55 +23754,55 @@
         <v/>
       </c>
       <c r="R311" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S311" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S311" s="62" t="str">
+      <c r="T311" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T311" s="60" t="str">
+      <c r="U311" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U311" s="60" t="str">
+      <c r="V311" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V311" s="60" t="str">
+      <c r="W311" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W311" s="60" t="str">
+      <c r="X311" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X311" s="60" t="str">
+      <c r="Y311" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y311" s="60" t="str">
+      <c r="Z311" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z311" s="60" t="str">
+      <c r="AA311" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA311" s="60" t="str">
+      <c r="AB311" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB311" s="60" t="str">
+      <c r="AC311" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC311" s="60" t="str">
+      <c r="AD311" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD311" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE311" s="63" t="str">
@@ -23825,7 +23846,7 @@
       </c>
       <c r="M312" s="56"/>
       <c r="N312" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O312" s="55" t="str">
@@ -23841,55 +23862,55 @@
         <v/>
       </c>
       <c r="R312" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S312" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S312" s="57" t="str">
+      <c r="T312" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T312" s="55" t="str">
+      <c r="U312" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U312" s="55" t="str">
+      <c r="V312" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V312" s="55" t="str">
+      <c r="W312" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W312" s="55" t="str">
+      <c r="X312" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X312" s="55" t="str">
+      <c r="Y312" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y312" s="55" t="str">
+      <c r="Z312" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z312" s="55" t="str">
+      <c r="AA312" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA312" s="55" t="str">
+      <c r="AB312" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB312" s="55" t="str">
+      <c r="AC312" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC312" s="55" t="str">
+      <c r="AD312" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD312" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE312" s="58" t="str">
@@ -23933,7 +23954,7 @@
       </c>
       <c r="M313" s="61"/>
       <c r="N313" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O313" s="60" t="str">
@@ -23949,55 +23970,55 @@
         <v/>
       </c>
       <c r="R313" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S313" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S313" s="62" t="str">
+      <c r="T313" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T313" s="60" t="str">
+      <c r="U313" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U313" s="60" t="str">
+      <c r="V313" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V313" s="60" t="str">
+      <c r="W313" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W313" s="60" t="str">
+      <c r="X313" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X313" s="60" t="str">
+      <c r="Y313" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y313" s="60" t="str">
+      <c r="Z313" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z313" s="60" t="str">
+      <c r="AA313" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA313" s="60" t="str">
+      <c r="AB313" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB313" s="60" t="str">
+      <c r="AC313" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC313" s="60" t="str">
+      <c r="AD313" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD313" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE313" s="63" t="str">
@@ -24041,7 +24062,7 @@
       </c>
       <c r="M314" s="56"/>
       <c r="N314" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O314" s="55" t="str">
@@ -24057,55 +24078,55 @@
         <v/>
       </c>
       <c r="R314" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S314" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S314" s="57" t="str">
+      <c r="T314" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T314" s="55" t="str">
+      <c r="U314" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U314" s="55" t="str">
+      <c r="V314" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V314" s="55" t="str">
+      <c r="W314" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W314" s="55" t="str">
+      <c r="X314" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X314" s="55" t="str">
+      <c r="Y314" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y314" s="55" t="str">
+      <c r="Z314" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z314" s="55" t="str">
+      <c r="AA314" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA314" s="55" t="str">
+      <c r="AB314" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB314" s="55" t="str">
+      <c r="AC314" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC314" s="55" t="str">
+      <c r="AD314" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD314" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE314" s="58" t="str">
@@ -24149,7 +24170,7 @@
       </c>
       <c r="M315" s="61"/>
       <c r="N315" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O315" s="60" t="str">
@@ -24165,55 +24186,55 @@
         <v/>
       </c>
       <c r="R315" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S315" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S315" s="62" t="str">
+      <c r="T315" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T315" s="60" t="str">
+      <c r="U315" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U315" s="60" t="str">
+      <c r="V315" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V315" s="60" t="str">
+      <c r="W315" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W315" s="60" t="str">
+      <c r="X315" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X315" s="60" t="str">
+      <c r="Y315" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y315" s="60" t="str">
+      <c r="Z315" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z315" s="60" t="str">
+      <c r="AA315" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA315" s="60" t="str">
+      <c r="AB315" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB315" s="60" t="str">
+      <c r="AC315" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC315" s="60" t="str">
+      <c r="AD315" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD315" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE315" s="63" t="str">
@@ -24257,7 +24278,7 @@
       </c>
       <c r="M316" s="56"/>
       <c r="N316" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O316" s="55" t="str">
@@ -24273,55 +24294,55 @@
         <v/>
       </c>
       <c r="R316" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S316" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S316" s="57" t="str">
+      <c r="T316" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T316" s="55" t="str">
+      <c r="U316" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U316" s="55" t="str">
+      <c r="V316" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V316" s="55" t="str">
+      <c r="W316" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W316" s="55" t="str">
+      <c r="X316" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X316" s="55" t="str">
+      <c r="Y316" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y316" s="55" t="str">
+      <c r="Z316" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z316" s="55" t="str">
+      <c r="AA316" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA316" s="55" t="str">
+      <c r="AB316" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB316" s="55" t="str">
+      <c r="AC316" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC316" s="55" t="str">
+      <c r="AD316" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD316" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE316" s="58" t="str">
@@ -24365,7 +24386,7 @@
       </c>
       <c r="M317" s="61"/>
       <c r="N317" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O317" s="60" t="str">
@@ -24381,55 +24402,55 @@
         <v/>
       </c>
       <c r="R317" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S317" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S317" s="62" t="str">
+      <c r="T317" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T317" s="60" t="str">
+      <c r="U317" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U317" s="60" t="str">
+      <c r="V317" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V317" s="60" t="str">
+      <c r="W317" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W317" s="60" t="str">
+      <c r="X317" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X317" s="60" t="str">
+      <c r="Y317" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y317" s="60" t="str">
+      <c r="Z317" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z317" s="60" t="str">
+      <c r="AA317" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA317" s="60" t="str">
+      <c r="AB317" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB317" s="60" t="str">
+      <c r="AC317" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC317" s="60" t="str">
+      <c r="AD317" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD317" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE317" s="63" t="str">
@@ -24473,7 +24494,7 @@
       </c>
       <c r="M318" s="56"/>
       <c r="N318" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O318" s="55" t="str">
@@ -24489,55 +24510,55 @@
         <v/>
       </c>
       <c r="R318" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S318" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S318" s="57" t="str">
+      <c r="T318" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T318" s="55" t="str">
+      <c r="U318" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U318" s="55" t="str">
+      <c r="V318" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V318" s="55" t="str">
+      <c r="W318" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W318" s="55" t="str">
+      <c r="X318" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X318" s="55" t="str">
+      <c r="Y318" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y318" s="55" t="str">
+      <c r="Z318" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z318" s="55" t="str">
+      <c r="AA318" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA318" s="55" t="str">
+      <c r="AB318" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB318" s="55" t="str">
+      <c r="AC318" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC318" s="55" t="str">
+      <c r="AD318" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD318" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE318" s="58" t="str">
@@ -24581,7 +24602,7 @@
       </c>
       <c r="M319" s="61"/>
       <c r="N319" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O319" s="60" t="str">
@@ -24597,55 +24618,55 @@
         <v/>
       </c>
       <c r="R319" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S319" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S319" s="62" t="str">
+      <c r="T319" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T319" s="60" t="str">
+      <c r="U319" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U319" s="60" t="str">
+      <c r="V319" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V319" s="60" t="str">
+      <c r="W319" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W319" s="60" t="str">
+      <c r="X319" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X319" s="60" t="str">
+      <c r="Y319" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y319" s="60" t="str">
+      <c r="Z319" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z319" s="60" t="str">
+      <c r="AA319" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA319" s="60" t="str">
+      <c r="AB319" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB319" s="60" t="str">
+      <c r="AC319" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC319" s="60" t="str">
+      <c r="AD319" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD319" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE319" s="63" t="str">
@@ -24689,7 +24710,7 @@
       </c>
       <c r="M320" s="56"/>
       <c r="N320" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O320" s="55" t="str">
@@ -24705,55 +24726,55 @@
         <v/>
       </c>
       <c r="R320" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S320" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S320" s="57" t="str">
+      <c r="T320" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T320" s="55" t="str">
+      <c r="U320" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U320" s="55" t="str">
+      <c r="V320" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V320" s="55" t="str">
+      <c r="W320" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W320" s="55" t="str">
+      <c r="X320" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X320" s="55" t="str">
+      <c r="Y320" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y320" s="55" t="str">
+      <c r="Z320" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z320" s="55" t="str">
+      <c r="AA320" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA320" s="55" t="str">
+      <c r="AB320" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB320" s="55" t="str">
+      <c r="AC320" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC320" s="55" t="str">
+      <c r="AD320" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD320" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE320" s="58" t="str">
@@ -24797,7 +24818,7 @@
       </c>
       <c r="M321" s="61"/>
       <c r="N321" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O321" s="60" t="str">
@@ -24813,55 +24834,55 @@
         <v/>
       </c>
       <c r="R321" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S321" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S321" s="62" t="str">
+      <c r="T321" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T321" s="60" t="str">
+      <c r="U321" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U321" s="60" t="str">
+      <c r="V321" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V321" s="60" t="str">
+      <c r="W321" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W321" s="60" t="str">
+      <c r="X321" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X321" s="60" t="str">
+      <c r="Y321" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y321" s="60" t="str">
+      <c r="Z321" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z321" s="60" t="str">
+      <c r="AA321" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA321" s="60" t="str">
+      <c r="AB321" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB321" s="60" t="str">
+      <c r="AC321" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC321" s="60" t="str">
+      <c r="AD321" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD321" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE321" s="63" t="str">
@@ -24905,7 +24926,7 @@
       </c>
       <c r="M322" s="56"/>
       <c r="N322" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O322" s="55" t="str">
@@ -24921,55 +24942,55 @@
         <v/>
       </c>
       <c r="R322" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S322" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S322" s="57" t="str">
+      <c r="T322" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T322" s="55" t="str">
+      <c r="U322" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U322" s="55" t="str">
+      <c r="V322" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V322" s="55" t="str">
+      <c r="W322" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W322" s="55" t="str">
+      <c r="X322" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X322" s="55" t="str">
+      <c r="Y322" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y322" s="55" t="str">
+      <c r="Z322" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z322" s="55" t="str">
+      <c r="AA322" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA322" s="55" t="str">
+      <c r="AB322" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB322" s="55" t="str">
+      <c r="AC322" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC322" s="55" t="str">
+      <c r="AD322" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD322" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE322" s="58" t="str">
@@ -25013,7 +25034,7 @@
       </c>
       <c r="M323" s="61"/>
       <c r="N323" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O323" s="60" t="str">
@@ -25029,55 +25050,55 @@
         <v/>
       </c>
       <c r="R323" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S323" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S323" s="62" t="str">
+      <c r="T323" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T323" s="60" t="str">
+      <c r="U323" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U323" s="60" t="str">
+      <c r="V323" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V323" s="60" t="str">
+      <c r="W323" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W323" s="60" t="str">
+      <c r="X323" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X323" s="60" t="str">
+      <c r="Y323" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y323" s="60" t="str">
+      <c r="Z323" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z323" s="60" t="str">
+      <c r="AA323" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA323" s="60" t="str">
+      <c r="AB323" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB323" s="60" t="str">
+      <c r="AC323" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC323" s="60" t="str">
+      <c r="AD323" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD323" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE323" s="63" t="str">
@@ -25121,7 +25142,7 @@
       </c>
       <c r="M324" s="56"/>
       <c r="N324" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O324" s="55" t="str">
@@ -25137,55 +25158,55 @@
         <v/>
       </c>
       <c r="R324" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S324" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S324" s="57" t="str">
+      <c r="T324" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T324" s="55" t="str">
+      <c r="U324" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U324" s="55" t="str">
+      <c r="V324" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V324" s="55" t="str">
+      <c r="W324" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W324" s="55" t="str">
+      <c r="X324" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X324" s="55" t="str">
+      <c r="Y324" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y324" s="55" t="str">
+      <c r="Z324" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z324" s="55" t="str">
+      <c r="AA324" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA324" s="55" t="str">
+      <c r="AB324" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB324" s="55" t="str">
+      <c r="AC324" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC324" s="55" t="str">
+      <c r="AD324" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD324" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE324" s="58" t="str">
@@ -25229,7 +25250,7 @@
       </c>
       <c r="M325" s="61"/>
       <c r="N325" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O325" s="60" t="str">
@@ -25245,55 +25266,55 @@
         <v/>
       </c>
       <c r="R325" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S325" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S325" s="62" t="str">
+      <c r="T325" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T325" s="60" t="str">
+      <c r="U325" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U325" s="60" t="str">
+      <c r="V325" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V325" s="60" t="str">
+      <c r="W325" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W325" s="60" t="str">
+      <c r="X325" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X325" s="60" t="str">
+      <c r="Y325" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y325" s="60" t="str">
+      <c r="Z325" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z325" s="60" t="str">
+      <c r="AA325" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA325" s="60" t="str">
+      <c r="AB325" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB325" s="60" t="str">
+      <c r="AC325" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC325" s="60" t="str">
+      <c r="AD325" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD325" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE325" s="63" t="str">
@@ -25337,7 +25358,7 @@
       </c>
       <c r="M326" s="56"/>
       <c r="N326" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O326" s="55" t="str">
@@ -25353,55 +25374,55 @@
         <v/>
       </c>
       <c r="R326" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S326" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S326" s="57" t="str">
+      <c r="T326" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T326" s="55" t="str">
+      <c r="U326" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U326" s="55" t="str">
+      <c r="V326" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V326" s="55" t="str">
+      <c r="W326" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W326" s="55" t="str">
+      <c r="X326" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X326" s="55" t="str">
+      <c r="Y326" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y326" s="55" t="str">
+      <c r="Z326" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z326" s="55" t="str">
+      <c r="AA326" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA326" s="55" t="str">
+      <c r="AB326" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB326" s="55" t="str">
+      <c r="AC326" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC326" s="55" t="str">
+      <c r="AD326" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD326" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE326" s="58" t="str">
@@ -25445,7 +25466,7 @@
       </c>
       <c r="M327" s="61"/>
       <c r="N327" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O327" s="60" t="str">
@@ -25461,55 +25482,55 @@
         <v/>
       </c>
       <c r="R327" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S327" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S327" s="62" t="str">
+      <c r="T327" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T327" s="60" t="str">
+      <c r="U327" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U327" s="60" t="str">
+      <c r="V327" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V327" s="60" t="str">
+      <c r="W327" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W327" s="60" t="str">
+      <c r="X327" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X327" s="60" t="str">
+      <c r="Y327" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y327" s="60" t="str">
+      <c r="Z327" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z327" s="60" t="str">
+      <c r="AA327" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA327" s="60" t="str">
+      <c r="AB327" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB327" s="60" t="str">
+      <c r="AC327" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC327" s="60" t="str">
+      <c r="AD327" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD327" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE327" s="63" t="str">
@@ -25553,7 +25574,7 @@
       </c>
       <c r="M328" s="56"/>
       <c r="N328" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O328" s="55" t="str">
@@ -25569,55 +25590,55 @@
         <v/>
       </c>
       <c r="R328" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S328" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S328" s="57" t="str">
+      <c r="T328" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T328" s="55" t="str">
+      <c r="U328" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U328" s="55" t="str">
+      <c r="V328" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V328" s="55" t="str">
+      <c r="W328" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W328" s="55" t="str">
+      <c r="X328" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X328" s="55" t="str">
+      <c r="Y328" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y328" s="55" t="str">
+      <c r="Z328" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z328" s="55" t="str">
+      <c r="AA328" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA328" s="55" t="str">
+      <c r="AB328" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB328" s="55" t="str">
+      <c r="AC328" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC328" s="55" t="str">
+      <c r="AD328" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD328" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE328" s="58" t="str">
@@ -25661,7 +25682,7 @@
       </c>
       <c r="M329" s="61"/>
       <c r="N329" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O329" s="60" t="str">
@@ -25677,55 +25698,55 @@
         <v/>
       </c>
       <c r="R329" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S329" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S329" s="62" t="str">
+      <c r="T329" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T329" s="60" t="str">
+      <c r="U329" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U329" s="60" t="str">
+      <c r="V329" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V329" s="60" t="str">
+      <c r="W329" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W329" s="60" t="str">
+      <c r="X329" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X329" s="60" t="str">
+      <c r="Y329" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y329" s="60" t="str">
+      <c r="Z329" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z329" s="60" t="str">
+      <c r="AA329" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA329" s="60" t="str">
+      <c r="AB329" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB329" s="60" t="str">
+      <c r="AC329" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC329" s="60" t="str">
+      <c r="AD329" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD329" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE329" s="63" t="str">
@@ -25769,7 +25790,7 @@
       </c>
       <c r="M330" s="56"/>
       <c r="N330" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O330" s="55" t="str">
@@ -25785,55 +25806,55 @@
         <v/>
       </c>
       <c r="R330" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S330" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S330" s="57" t="str">
+      <c r="T330" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T330" s="55" t="str">
+      <c r="U330" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U330" s="55" t="str">
+      <c r="V330" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V330" s="55" t="str">
+      <c r="W330" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W330" s="55" t="str">
+      <c r="X330" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X330" s="55" t="str">
+      <c r="Y330" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y330" s="55" t="str">
+      <c r="Z330" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z330" s="55" t="str">
+      <c r="AA330" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA330" s="55" t="str">
+      <c r="AB330" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB330" s="55" t="str">
+      <c r="AC330" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC330" s="55" t="str">
+      <c r="AD330" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD330" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE330" s="58" t="str">
@@ -25877,7 +25898,7 @@
       </c>
       <c r="M331" s="61"/>
       <c r="N331" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O331" s="60" t="str">
@@ -25893,55 +25914,55 @@
         <v/>
       </c>
       <c r="R331" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S331" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S331" s="62" t="str">
+      <c r="T331" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T331" s="60" t="str">
+      <c r="U331" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U331" s="60" t="str">
+      <c r="V331" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V331" s="60" t="str">
+      <c r="W331" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W331" s="60" t="str">
+      <c r="X331" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X331" s="60" t="str">
+      <c r="Y331" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y331" s="60" t="str">
+      <c r="Z331" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z331" s="60" t="str">
+      <c r="AA331" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA331" s="60" t="str">
+      <c r="AB331" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB331" s="60" t="str">
+      <c r="AC331" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC331" s="60" t="str">
+      <c r="AD331" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD331" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE331" s="63" t="str">
@@ -25985,7 +26006,7 @@
       </c>
       <c r="M332" s="56"/>
       <c r="N332" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O332" s="55" t="str">
@@ -26001,55 +26022,55 @@
         <v/>
       </c>
       <c r="R332" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S332" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S332" s="57" t="str">
+      <c r="T332" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T332" s="55" t="str">
+      <c r="U332" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U332" s="55" t="str">
+      <c r="V332" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V332" s="55" t="str">
+      <c r="W332" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W332" s="55" t="str">
+      <c r="X332" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X332" s="55" t="str">
+      <c r="Y332" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y332" s="55" t="str">
+      <c r="Z332" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z332" s="55" t="str">
+      <c r="AA332" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA332" s="55" t="str">
+      <c r="AB332" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB332" s="55" t="str">
+      <c r="AC332" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC332" s="55" t="str">
+      <c r="AD332" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD332" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE332" s="58" t="str">
@@ -26093,7 +26114,7 @@
       </c>
       <c r="M333" s="61"/>
       <c r="N333" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O333" s="60" t="str">
@@ -26109,55 +26130,55 @@
         <v/>
       </c>
       <c r="R333" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S333" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S333" s="62" t="str">
+      <c r="T333" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T333" s="60" t="str">
+      <c r="U333" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U333" s="60" t="str">
+      <c r="V333" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V333" s="60" t="str">
+      <c r="W333" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W333" s="60" t="str">
+      <c r="X333" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X333" s="60" t="str">
+      <c r="Y333" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y333" s="60" t="str">
+      <c r="Z333" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z333" s="60" t="str">
+      <c r="AA333" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA333" s="60" t="str">
+      <c r="AB333" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB333" s="60" t="str">
+      <c r="AC333" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC333" s="60" t="str">
+      <c r="AD333" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD333" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE333" s="63" t="str">
@@ -26201,7 +26222,7 @@
       </c>
       <c r="M334" s="56"/>
       <c r="N334" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O334" s="55" t="str">
@@ -26217,55 +26238,55 @@
         <v/>
       </c>
       <c r="R334" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S334" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S334" s="57" t="str">
+      <c r="T334" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T334" s="55" t="str">
+      <c r="U334" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U334" s="55" t="str">
+      <c r="V334" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V334" s="55" t="str">
+      <c r="W334" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W334" s="55" t="str">
+      <c r="X334" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X334" s="55" t="str">
+      <c r="Y334" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y334" s="55" t="str">
+      <c r="Z334" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z334" s="55" t="str">
+      <c r="AA334" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA334" s="55" t="str">
+      <c r="AB334" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB334" s="55" t="str">
+      <c r="AC334" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC334" s="55" t="str">
+      <c r="AD334" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD334" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE334" s="58" t="str">
@@ -26309,7 +26330,7 @@
       </c>
       <c r="M335" s="61"/>
       <c r="N335" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O335" s="60" t="str">
@@ -26325,55 +26346,55 @@
         <v/>
       </c>
       <c r="R335" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S335" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S335" s="62" t="str">
+      <c r="T335" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T335" s="60" t="str">
+      <c r="U335" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U335" s="60" t="str">
+      <c r="V335" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V335" s="60" t="str">
+      <c r="W335" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W335" s="60" t="str">
+      <c r="X335" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X335" s="60" t="str">
+      <c r="Y335" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y335" s="60" t="str">
+      <c r="Z335" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z335" s="60" t="str">
+      <c r="AA335" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA335" s="60" t="str">
+      <c r="AB335" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB335" s="60" t="str">
+      <c r="AC335" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC335" s="60" t="str">
+      <c r="AD335" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD335" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE335" s="63" t="str">
@@ -26417,7 +26438,7 @@
       </c>
       <c r="M336" s="56"/>
       <c r="N336" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O336" s="55" t="str">
@@ -26433,55 +26454,55 @@
         <v/>
       </c>
       <c r="R336" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S336" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S336" s="57" t="str">
+      <c r="T336" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T336" s="55" t="str">
+      <c r="U336" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U336" s="55" t="str">
+      <c r="V336" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V336" s="55" t="str">
+      <c r="W336" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W336" s="55" t="str">
+      <c r="X336" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X336" s="55" t="str">
+      <c r="Y336" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y336" s="55" t="str">
+      <c r="Z336" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z336" s="55" t="str">
+      <c r="AA336" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA336" s="55" t="str">
+      <c r="AB336" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB336" s="55" t="str">
+      <c r="AC336" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC336" s="55" t="str">
+      <c r="AD336" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD336" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE336" s="58" t="str">
@@ -26525,7 +26546,7 @@
       </c>
       <c r="M337" s="61"/>
       <c r="N337" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O337" s="60" t="str">
@@ -26541,55 +26562,55 @@
         <v/>
       </c>
       <c r="R337" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S337" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S337" s="62" t="str">
+      <c r="T337" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T337" s="60" t="str">
+      <c r="U337" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U337" s="60" t="str">
+      <c r="V337" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V337" s="60" t="str">
+      <c r="W337" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W337" s="60" t="str">
+      <c r="X337" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X337" s="60" t="str">
+      <c r="Y337" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y337" s="60" t="str">
+      <c r="Z337" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z337" s="60" t="str">
+      <c r="AA337" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA337" s="60" t="str">
+      <c r="AB337" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB337" s="60" t="str">
+      <c r="AC337" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC337" s="60" t="str">
+      <c r="AD337" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD337" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE337" s="63" t="str">
@@ -26633,7 +26654,7 @@
       </c>
       <c r="M338" s="56"/>
       <c r="N338" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O338" s="55" t="str">
@@ -26649,55 +26670,55 @@
         <v/>
       </c>
       <c r="R338" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S338" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S338" s="57" t="str">
+      <c r="T338" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T338" s="55" t="str">
+      <c r="U338" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U338" s="55" t="str">
+      <c r="V338" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V338" s="55" t="str">
+      <c r="W338" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W338" s="55" t="str">
+      <c r="X338" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X338" s="55" t="str">
+      <c r="Y338" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y338" s="55" t="str">
+      <c r="Z338" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z338" s="55" t="str">
+      <c r="AA338" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA338" s="55" t="str">
+      <c r="AB338" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB338" s="55" t="str">
+      <c r="AC338" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC338" s="55" t="str">
+      <c r="AD338" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD338" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE338" s="58" t="str">
@@ -26741,7 +26762,7 @@
       </c>
       <c r="M339" s="61"/>
       <c r="N339" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O339" s="60" t="str">
@@ -26757,55 +26778,55 @@
         <v/>
       </c>
       <c r="R339" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S339" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S339" s="62" t="str">
+      <c r="T339" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T339" s="60" t="str">
+      <c r="U339" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U339" s="60" t="str">
+      <c r="V339" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V339" s="60" t="str">
+      <c r="W339" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W339" s="60" t="str">
+      <c r="X339" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X339" s="60" t="str">
+      <c r="Y339" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y339" s="60" t="str">
+      <c r="Z339" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z339" s="60" t="str">
+      <c r="AA339" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA339" s="60" t="str">
+      <c r="AB339" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB339" s="60" t="str">
+      <c r="AC339" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC339" s="60" t="str">
+      <c r="AD339" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD339" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE339" s="63" t="str">
@@ -26849,7 +26870,7 @@
       </c>
       <c r="M340" s="56"/>
       <c r="N340" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O340" s="55" t="str">
@@ -26865,55 +26886,55 @@
         <v/>
       </c>
       <c r="R340" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S340" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S340" s="57" t="str">
+      <c r="T340" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T340" s="55" t="str">
+      <c r="U340" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U340" s="55" t="str">
+      <c r="V340" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V340" s="55" t="str">
+      <c r="W340" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W340" s="55" t="str">
+      <c r="X340" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X340" s="55" t="str">
+      <c r="Y340" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y340" s="55" t="str">
+      <c r="Z340" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z340" s="55" t="str">
+      <c r="AA340" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA340" s="55" t="str">
+      <c r="AB340" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB340" s="55" t="str">
+      <c r="AC340" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC340" s="55" t="str">
+      <c r="AD340" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD340" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE340" s="58" t="str">
@@ -26957,7 +26978,7 @@
       </c>
       <c r="M341" s="61"/>
       <c r="N341" s="60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O341" s="60" t="str">
@@ -26973,55 +26994,55 @@
         <v/>
       </c>
       <c r="R341" s="60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S341" s="62" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S341" s="62" t="str">
+      <c r="T341" s="60" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T341" s="60" t="str">
+      <c r="U341" s="60" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U341" s="60" t="str">
+      <c r="V341" s="60" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V341" s="60" t="str">
+      <c r="W341" s="60" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W341" s="60" t="str">
+      <c r="X341" s="60" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X341" s="60" t="str">
+      <c r="Y341" s="60" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y341" s="60" t="str">
+      <c r="Z341" s="60" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z341" s="60" t="str">
+      <c r="AA341" s="60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA341" s="60" t="str">
+      <c r="AB341" s="60" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB341" s="60" t="str">
+      <c r="AC341" s="60" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC341" s="60" t="str">
+      <c r="AD341" s="60" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD341" s="60" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE341" s="63" t="str">
@@ -27065,7 +27086,7 @@
       </c>
       <c r="M342" s="56"/>
       <c r="N342" s="55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O342" s="55" t="str">
@@ -27081,55 +27102,55 @@
         <v/>
       </c>
       <c r="R342" s="55" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S342" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S342" s="57" t="str">
+      <c r="T342" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T342" s="55" t="str">
+      <c r="U342" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U342" s="55" t="str">
+      <c r="V342" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V342" s="55" t="str">
+      <c r="W342" s="55" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W342" s="55" t="str">
+      <c r="X342" s="55" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X342" s="55" t="str">
+      <c r="Y342" s="55" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y342" s="55" t="str">
+      <c r="Z342" s="55" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z342" s="55" t="str">
+      <c r="AA342" s="55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA342" s="55" t="str">
+      <c r="AB342" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB342" s="55" t="str">
+      <c r="AC342" s="55" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC342" s="55" t="str">
+      <c r="AD342" s="55" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD342" s="55" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE342" s="58" t="str">
@@ -27173,7 +27194,7 @@
       </c>
       <c r="M343" s="66"/>
       <c r="N343" s="65" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O343" s="65" t="str">
@@ -27189,55 +27210,55 @@
         <v/>
       </c>
       <c r="R343" s="65" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S343" s="69" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S343" s="69" t="str">
+      <c r="T343" s="65" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T343" s="65" t="str">
+      <c r="U343" s="65" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U343" s="65" t="str">
+      <c r="V343" s="65" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V343" s="65" t="str">
+      <c r="W343" s="65" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="W343" s="65" t="str">
+      <c r="X343" s="65" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X343" s="65" t="str">
+      <c r="Y343" s="65" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Y343" s="65" t="str">
+      <c r="Z343" s="65" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Z343" s="65" t="str">
+      <c r="AA343" s="65" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AA343" s="65" t="str">
+      <c r="AB343" s="65" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB343" s="65" t="str">
+      <c r="AC343" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AC343" s="65" t="str">
+      <c r="AD343" s="65" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AD343" s="65" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE343" s="70" t="str">
@@ -27374,15 +27395,31 @@
       </c>
       <c r="M349" s="75"/>
       <c r="N349" s="75"/>
-      <c r="O349" s="80"/>
-      <c r="P349" s="80"/>
-      <c r="Q349" s="80"/>
-      <c r="R349" s="80"/>
-      <c r="S349" s="80"/>
-      <c r="T349" s="80"/>
-      <c r="U349" s="81"/>
+      <c r="O349" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="P349" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q349" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="R349" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="S349" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="T349" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="U349" s="81">
+        <v>0</v>
+      </c>
       <c r="V349" s="75"/>
-      <c r="W349" s="80"/>
+      <c r="W349" s="80" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" s="55" t="str">
